--- a/fid_example.xlsx
+++ b/fid_example.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t xml:space="preserve">ProductName</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">CategoryName</t>
   </si>
   <si>
+    <t xml:space="preserve">GroupName</t>
+  </si>
+  <si>
     <t xml:space="preserve">ProductCost</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Category 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 1</t>
   </si>
   <si>
     <t xml:space="preserve">Lorem ipsum dolor sit amet…</t>
@@ -58,6 +64,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://site.dom/photo/url/name.jpg</t>
     </r>
@@ -66,6 +73,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -75,6 +83,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://site.dom/photo/url/name2.jpg</t>
     </r>
@@ -83,6 +92,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">,</t>
     </r>
@@ -92,6 +102,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">https://site.dom/photo/url/name3.jpg</t>
     </r>
@@ -106,52 +117,79 @@
     <t xml:space="preserve">Category 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 3</t>
   </si>
   <si>
     <t xml:space="preserve">Category 3</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 4</t>
   </si>
   <si>
     <t xml:space="preserve">Category 4</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 5</t>
   </si>
   <si>
     <t xml:space="preserve">Category 5</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 6</t>
   </si>
   <si>
     <t xml:space="preserve">Category 6</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 7</t>
   </si>
   <si>
     <t xml:space="preserve">Category 7</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 8</t>
   </si>
   <si>
     <t xml:space="preserve">Category 8</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 9</t>
   </si>
   <si>
     <t xml:space="preserve">Category 9</t>
   </si>
   <si>
+    <t xml:space="preserve">Group 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product 10</t>
   </si>
   <si>
     <t xml:space="preserve">Category 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group 10</t>
   </si>
 </sst>
 </file>
@@ -166,6 +204,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -187,12 +226,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -352,21 +393,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,13 +418,13 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -391,244 +433,277 @@
       <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>1500</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="E2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="n">
         <v>1600</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
+      <c r="E3" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1900</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>11</v>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>2200</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>11</v>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>2300</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>2400</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>2400</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>11</v>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Страница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/fid_example.xlsx
+++ b/fid_example.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="52">
   <si>
     <t xml:space="preserve">ProductName</t>
   </si>
   <si>
+    <t xml:space="preserve">ProductCode</t>
+  </si>
+  <si>
     <t xml:space="preserve">CategoryName</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Product 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code-1</t>
   </si>
   <si>
     <t xml:space="preserve">Category 1</t>
@@ -114,6 +120,9 @@
     <t xml:space="preserve">Product 2</t>
   </si>
   <si>
+    <t xml:space="preserve">code-2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category 2</t>
   </si>
   <si>
@@ -123,6 +132,9 @@
     <t xml:space="preserve">Product 3</t>
   </si>
   <si>
+    <t xml:space="preserve">code-3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category 3</t>
   </si>
   <si>
@@ -132,6 +144,9 @@
     <t xml:space="preserve">Product 4</t>
   </si>
   <si>
+    <t xml:space="preserve">code-4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category 4</t>
   </si>
   <si>
@@ -141,6 +156,9 @@
     <t xml:space="preserve">Product 5</t>
   </si>
   <si>
+    <t xml:space="preserve">code-5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category 5</t>
   </si>
   <si>
@@ -150,6 +168,9 @@
     <t xml:space="preserve">Product 6</t>
   </si>
   <si>
+    <t xml:space="preserve">code-6</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category 6</t>
   </si>
   <si>
@@ -159,6 +180,9 @@
     <t xml:space="preserve">Product 7</t>
   </si>
   <si>
+    <t xml:space="preserve">code-7</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category 7</t>
   </si>
   <si>
@@ -168,6 +192,9 @@
     <t xml:space="preserve">Product 8</t>
   </si>
   <si>
+    <t xml:space="preserve">code-8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category 8</t>
   </si>
   <si>
@@ -177,6 +204,9 @@
     <t xml:space="preserve">Product 9</t>
   </si>
   <si>
+    <t xml:space="preserve">code-9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Category 9</t>
   </si>
   <si>
@@ -184,6 +214,9 @@
   </si>
   <si>
     <t xml:space="preserve">Product 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code-10</t>
   </si>
   <si>
     <t xml:space="preserve">Category 10</t>
@@ -393,22 +426,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="18.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="41.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="35.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="19.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="18.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="41.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="35.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="35.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -421,13 +454,13 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -436,265 +469,298 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>1500</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>1600</v>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="F3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>1700</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
+      <c r="F4" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="n">
         <v>1800</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1900</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
+      <c r="G6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>13</v>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="F8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>13</v>
+      <c r="G8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>2200</v>
       </c>
-      <c r="E9" s="2" t="n">
+      <c r="F9" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
+      <c r="G9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>2300</v>
       </c>
-      <c r="E10" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>13</v>
+      <c r="G10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>2400</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="F11" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>13</v>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
